--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.771438088942</v>
+        <v>436.5914380881763</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2179999351501465</v>
+        <v>0.1949999332427979</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.45544821927484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.45544821927484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>340.1200000007657</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.06495752168227</v>
+        <v>12.281733777038</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.72978832722606</v>
+        <v>11.61690297149421</v>
       </c>
     </row>
     <row r="5">
@@ -906,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.67685125555192</v>
+        <v>10.32314874444798</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>37.34699999999986</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
@@ -1060,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>140.591000000035</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="5">
@@ -1071,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>151.5339999999997</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="6">
@@ -1082,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.7910000000004</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1093,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>182.4780000000758</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="8">
@@ -1104,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>182.4780000000769</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="9">
@@ -1115,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>151.5339999999997</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>32.47800000007692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1173,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.533999999999651</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.726</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
@@ -1231,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12.028</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1264,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.651999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,23 +1255,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
